--- a/web/hos.xlsx
+++ b/web/hos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4125" windowWidth="20730" windowHeight="10665" tabRatio="777" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4125" windowWidth="20730" windowHeight="10665" tabRatio="777"/>
   </bookViews>
   <sheets>
     <sheet name="k1" sheetId="25" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -298,15 +298,9 @@
     <t>2) รหัสจังหวัด 2 หลัก</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>3) รหัสอำเภอ 2 หลัก</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>4) ปีงบประมาณ</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>รพศ/รพท/รพช</t>
   </si>
   <si>
-    <t>11252</t>
-  </si>
-  <si>
     <t>hospcode</t>
   </si>
   <si>
@@ -371,6 +362,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>00</t>
   </si>
 </sst>
 </file>
@@ -379,7 +376,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -802,9 +799,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,125 +842,128 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="14" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="187" fontId="7" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="14" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="190" fontId="6" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="190" fontId="7" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1283,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.75"/>
@@ -1299,10 +1296,10 @@
         <v>79</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>86</v>
+        <v>103</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5">
@@ -1310,23 +1307,23 @@
         <v>80</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5">
       <c r="A3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5">
       <c r="A4" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1340,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C55" sqref="C55:N56"/>
@@ -1351,78 +1348,78 @@
   <cols>
     <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="19" customWidth="1"/>
-    <col min="3" max="14" width="6.625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="46" customWidth="1"/>
+    <col min="3" max="14" width="6.625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="44" customWidth="1"/>
     <col min="16" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="78">
+      <c r="C1" s="35"/>
+      <c r="D1" s="76">
         <f>'k1'!B4-1</f>
         <v>2557</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="str">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="str">
         <f>'k1'!B4</f>
         <v>2558</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="42"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="24"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1430,102 +1427,102 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <f>IF(C5=0,0,C4*1000/C5)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:N3" si="0">IF(D5=0,0,D4*1000/D5)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="41" t="e">
+      <c r="O3" s="39" t="e">
         <f>O4*1000/O5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="44">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="42">
         <f>SUM(C4:N4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="44">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="42">
         <f>SUM(C5:N5)</f>
         <v>0</v>
       </c>
@@ -1534,102 +1531,102 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <f>IF(C8=0,0,C7*100/C8)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <f t="shared" ref="D6:N6" si="1">IF(D8=0,0,D7*100/D8)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="41" t="e">
-        <f t="shared" ref="C6:O6" si="2">O7*100/O8</f>
+      <c r="O6" s="39" t="e">
+        <f t="shared" ref="O6" si="2">O7*100/O8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="29.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="44">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="42">
         <f>SUM(C7:N7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21">
       <c r="A8" s="4"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="44">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="42">
         <f>SUM(C8:N8)</f>
         <v>0</v>
       </c>
@@ -1638,102 +1635,102 @@
       <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <f>IF(C11=0,0,C10*1000/C11)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <f t="shared" ref="D9:N9" si="3">IF(D11=0,0,D10*1000/D11)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="41" t="e">
-        <f t="shared" ref="C9:O9" si="4">O10*1000/O11</f>
+      <c r="O9" s="39" t="e">
+        <f t="shared" ref="O9" si="4">O10*1000/O11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21.75">
       <c r="A10" s="3"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="44">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="42">
         <f>SUM(C10:N10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21.75">
       <c r="A11" s="3"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="44">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="42">
         <f>SUM(C11:N11)</f>
         <v>0</v>
       </c>
@@ -1742,102 +1739,102 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <f>IF(C14=0,0,C13*1000/C14)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <f t="shared" ref="D12:N12" si="5">IF(D14=0,0,D13*1000/D14)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="39">
         <f>IF(O14=0,0,O13*1000/O14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5"/>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="44">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="42">
         <f>SUM(C13:N13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="23.25" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="44">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="42">
         <f>SUM(C14:N14)</f>
         <v>0</v>
       </c>
@@ -1846,102 +1843,102 @@
       <c r="A15" s="7">
         <v>5</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <f>IF(C17=0,0,C16*100/C17)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <f t="shared" ref="D15:O15" si="6">IF(D17=0,0,D16*100/D17)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="38">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="44">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="42">
         <f>SUM(C16:N16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="44">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="42">
         <f>SUM(C17:N17)</f>
         <v>0</v>
       </c>
@@ -1950,102 +1947,102 @@
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <f>IF(C20=0,0,C19/C20)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <f t="shared" ref="D18:O18" si="7">IF(D20=0,0,D19/D20)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8"/>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="44">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="42">
         <f>SUM(C19:N19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="44">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="42">
         <f>SUM(C20:N20)</f>
         <v>0</v>
       </c>
@@ -2054,102 +2051,102 @@
       <c r="A21" s="2">
         <v>7</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="30">
         <f>IF(C23=0,0,C22*1000/C23)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <f t="shared" ref="D21:O21" si="8">IF(D23=0,0,D22*1000/D23)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="3"/>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="44">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="42">
         <f>SUM(C22:N22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="21.75">
       <c r="A23" s="4"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="44">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="42">
         <f>SUM(C23:N23)</f>
         <v>0</v>
       </c>
@@ -2158,102 +2155,102 @@
       <c r="A24" s="10">
         <v>8</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="30">
         <f>IF(C26=0,0,C25*100/C26)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <f t="shared" ref="D24:O24" si="9">IF(D26=0,0,D25*100/D26)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="21.75">
       <c r="A25" s="4"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="44">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="42">
         <f>SUM(C25:N25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="44">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="42">
         <f>SUM(C26:N26)</f>
         <v>0</v>
       </c>
@@ -2262,102 +2259,102 @@
       <c r="A27" s="2">
         <v>9</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <f>IF(C29=0,0,C28*100/C29)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <f t="shared" ref="D27:O27" si="10">IF(D29=0,0,D28*100/D29)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="30">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="44">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="42">
         <f>SUM(C28:N28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4"/>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="44">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="42">
         <f>SUM(C29:N29)</f>
         <v>0</v>
       </c>
@@ -2366,102 +2363,102 @@
       <c r="A30" s="12">
         <v>10</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <f>IF(C32=0,0,C31*100/C32)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <f t="shared" ref="D30:O30" si="11">IF(D32=0,0,D31*100/D32)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="30">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="44">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="42">
         <f>SUM(C31:N31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="44">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="42">
         <f>SUM(C32:N32)</f>
         <v>0</v>
       </c>
@@ -2470,102 +2467,102 @@
       <c r="A33" s="13">
         <v>11</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <f>IF(C35=0,0,C34*100/C35)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <f t="shared" ref="D33:O33" si="12">IF(D35=0,0,D34*100/D35)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O33" s="45">
+      <c r="O33" s="43">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="14"/>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="44">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="42">
         <f>SUM(C34:N34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="14"/>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="44">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="42">
         <f>SUM(C35:N35)</f>
         <v>0</v>
       </c>
@@ -2574,102 +2571,102 @@
       <c r="A36" s="18">
         <v>12</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <f>IF(C38=0,0,C37*100/C38)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <f t="shared" ref="D36:O36" si="13">IF(D38=0,0,D37*100/D38)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O36" s="45">
+      <c r="O36" s="43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="4"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="44">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="42">
         <f>SUM(C37:N37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="4"/>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="44">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="42">
         <f>SUM(C38:N38)</f>
         <v>0</v>
       </c>
@@ -2678,22 +2675,22 @@
       <c r="A39" s="10">
         <v>13</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="44">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="42">
         <f>SUM(C39:N39)</f>
         <v>0</v>
       </c>
@@ -2702,22 +2699,22 @@
       <c r="A40" s="12">
         <v>14</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="44">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="42">
         <f t="shared" ref="O40:O47" si="14">SUM(C40:N40)</f>
         <v>0</v>
       </c>
@@ -2726,22 +2723,22 @@
       <c r="A41" s="2">
         <v>15</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="44">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2750,22 +2747,22 @@
       <c r="A42" s="12">
         <v>16</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="44">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2774,22 +2771,22 @@
       <c r="A43" s="12">
         <v>17</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="44">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2798,22 +2795,22 @@
       <c r="A44" s="13">
         <v>18</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="44">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2822,22 +2819,22 @@
       <c r="A45" s="13">
         <v>19</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="44">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2846,22 +2843,22 @@
       <c r="A46" s="15">
         <v>20</v>
       </c>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="44">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2870,22 +2867,22 @@
       <c r="A47" s="2">
         <v>21</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="44">
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2894,102 +2891,102 @@
       <c r="A48" s="2">
         <v>22</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <f>IF(C50=0,0,C49*100/C50)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="30">
         <f t="shared" ref="D48:O48" si="15">IF(D50=0,0,D49*100/D50)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H48" s="31">
+      <c r="H48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I48" s="31">
+      <c r="I48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K48" s="31">
+      <c r="K48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L48" s="31">
+      <c r="L48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M48" s="31">
+      <c r="M48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N48" s="31">
+      <c r="N48" s="30">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O48" s="45">
+      <c r="O48" s="43">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="8"/>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="44">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="42">
         <f>SUM(C49:N49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="9"/>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="44">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="42">
         <f>SUM(C50:N50)</f>
         <v>0</v>
       </c>
@@ -2998,102 +2995,102 @@
       <c r="A51" s="2">
         <v>23</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="30">
         <f>IF(C53=0,0,C52*100/C53)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="30">
         <f t="shared" ref="D51:O51" si="16">IF(D53=0,0,D52*100/D53)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I51" s="31">
+      <c r="I51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M51" s="31">
+      <c r="M51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N51" s="31">
+      <c r="N51" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O51" s="45">
+      <c r="O51" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="17.25" customHeight="1">
       <c r="A52" s="8"/>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="44">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="42">
         <f>SUM(C52:N52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="21">
       <c r="A53" s="9"/>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="44">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="42">
         <f>SUM(C53:N53)</f>
         <v>0</v>
       </c>
@@ -3102,102 +3099,102 @@
       <c r="A54" s="2">
         <v>24</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="30">
         <f>IF(C56=0,0,C55*100/C56)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="30">
         <f t="shared" ref="D54:O54" si="17">IF(D56=0,0,D55*100/D56)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H54" s="31">
+      <c r="H54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I54" s="31">
+      <c r="I54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K54" s="31">
+      <c r="K54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L54" s="31">
+      <c r="L54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M54" s="31">
+      <c r="M54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N54" s="31">
+      <c r="N54" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O54" s="45">
+      <c r="O54" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1">
       <c r="A55" s="5"/>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="44">
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="42">
         <f>SUM(C55:N55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="21">
       <c r="A56" s="6"/>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="44">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="42">
         <f>SUM(C56:N56)</f>
         <v>0</v>
       </c>
@@ -3206,106 +3203,106 @@
       <c r="A57" s="13">
         <v>25</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="30">
         <f>IF(C59=0,0,C58*100/C59)</f>
         <v>50</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="30">
         <f t="shared" ref="D57:O57" si="18">IF(D59=0,0,D58*100/D59)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F57" s="31">
+      <c r="F57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H57" s="31">
+      <c r="H57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I57" s="31">
+      <c r="I57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K57" s="31">
+      <c r="K57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L57" s="31">
+      <c r="L57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M57" s="31">
+      <c r="M57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N57" s="31">
+      <c r="N57" s="30">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O57" s="45">
+      <c r="O57" s="43">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="22.5">
       <c r="A58" s="14"/>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="31">
         <v>1</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="44">
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="42">
         <f>SUM(C58:N58)</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" customHeight="1">
       <c r="A59" s="14"/>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="31">
         <v>2</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="44">
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="42">
         <f>SUM(C59:N59)</f>
         <v>2</v>
       </c>
@@ -3314,26 +3311,26 @@
       <c r="A60" s="2">
         <v>26</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="31">
         <v>1</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="31">
         <v>1</v>
       </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="44">
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="42">
         <f>SUM(C60:N60)</f>
         <v>2</v>
       </c>
@@ -3342,28 +3339,28 @@
       <c r="A61" s="12">
         <v>27</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="31">
         <v>1</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="31">
         <v>2</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="31">
         <v>1</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="44">
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="42">
         <f>SUM(C61:N61)</f>
         <v>4</v>
       </c>
@@ -3372,63 +3369,63 @@
       <c r="A62" s="12">
         <v>28</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>1</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="31">
         <v>1</v>
       </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="44">
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="42">
         <f>SUM(C62:N62)</f>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="14"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="49"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="47"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="14"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="49"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="47"/>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="19" t="s">
@@ -3444,7 +3441,7 @@
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3470,2107 +3467,2107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="28"/>
-    <col min="4" max="4" width="9" style="47"/>
-    <col min="5" max="16384" width="9" style="28"/>
+    <col min="1" max="3" width="9" style="27"/>
+    <col min="4" max="4" width="9" style="45"/>
+    <col min="5" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="G1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="28" t="str">
+      <c r="A2" s="27" t="str">
         <f>'k1'!B1</f>
-        <v>11252</v>
-      </c>
-      <c r="B2" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B2" s="27" t="str">
         <f>'k1'!B2</f>
-        <v>65</v>
-      </c>
-      <c r="C2" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C2" s="27" t="str">
         <f>'k1'!B3</f>
-        <v>03</v>
-      </c>
-      <c r="D2" s="47">
+        <v>00</v>
+      </c>
+      <c r="D2" s="45">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="str">
+      <c r="E2" s="27" t="str">
         <f>'k1'!B4</f>
         <v>2558</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <f>'k2'!C3</f>
         <v>0</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <f>'k2'!D3</f>
         <v>0</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>'k2'!E3</f>
         <v>0</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <f>'k2'!F3</f>
         <v>0</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="28">
         <f>'k2'!G3</f>
         <v>0</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="28">
         <f>'k2'!H3</f>
         <v>0</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="28">
         <f>'k2'!I3</f>
         <v>0</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="28">
         <f>'k2'!J3</f>
         <v>0</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="28">
         <f>'k2'!K3</f>
         <v>0</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="28">
         <f>'k2'!L3</f>
         <v>0</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="28">
         <f>'k2'!M3</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="28">
         <f>'k2'!N3</f>
         <v>0</v>
       </c>
-      <c r="R2" s="29" t="e">
+      <c r="R2" s="28" t="e">
         <f>'k2'!O3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="28" t="str">
-        <f>A2</f>
-        <v>11252</v>
-      </c>
-      <c r="B3" s="28" t="str">
-        <f>B2</f>
-        <v>65</v>
-      </c>
-      <c r="C3" s="28" t="str">
-        <f>C2</f>
-        <v>03</v>
-      </c>
-      <c r="D3" s="47">
+      <c r="A3" s="27" t="str">
+        <f t="shared" ref="A3:C4" si="0">A2</f>
+        <v>00000</v>
+      </c>
+      <c r="B3" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C3" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="D3" s="45">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="str">
+      <c r="E3" s="27" t="str">
         <f>E2</f>
         <v>2558</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <f>'k2'!C6</f>
         <v>0</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <f>'k2'!D6</f>
         <v>0</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <f>'k2'!E6</f>
         <v>0</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <f>'k2'!F6</f>
         <v>0</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <f>'k2'!G6</f>
         <v>0</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <f>'k2'!H6</f>
         <v>0</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <f>'k2'!I6</f>
         <v>0</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="28">
         <f>'k2'!J6</f>
         <v>0</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <f>'k2'!K6</f>
         <v>0</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <f>'k2'!L6</f>
         <v>0</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <f>'k2'!M6</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <f>'k2'!N6</f>
         <v>0</v>
       </c>
-      <c r="R3" s="29" t="e">
+      <c r="R3" s="28" t="e">
         <f>'k2'!O6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="28" t="str">
-        <f>A3</f>
-        <v>11252</v>
-      </c>
-      <c r="B4" s="28" t="str">
-        <f>B3</f>
-        <v>65</v>
-      </c>
-      <c r="C4" s="28" t="str">
-        <f>C3</f>
-        <v>03</v>
-      </c>
-      <c r="D4" s="47">
+      <c r="A4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>00000</v>
+      </c>
+      <c r="B4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="C4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="D4" s="45">
         <v>3</v>
       </c>
-      <c r="E4" s="28" t="str">
+      <c r="E4" s="27" t="str">
         <f>E3</f>
         <v>2558</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <f>'k2'!C9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <f>'k2'!D9</f>
         <v>0</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f>'k2'!E9</f>
         <v>0</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <f>'k2'!F9</f>
         <v>0</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <f>'k2'!G9</f>
         <v>0</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <f>'k2'!H9</f>
         <v>0</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="28">
         <f>'k2'!I9</f>
         <v>0</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <f>'k2'!J9</f>
         <v>0</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="28">
         <f>'k2'!K9</f>
         <v>0</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="28">
         <f>'k2'!L9</f>
         <v>0</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="28">
         <f>'k2'!M9</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="28">
         <f>'k2'!N9</f>
         <v>0</v>
       </c>
-      <c r="R4" s="29" t="e">
+      <c r="R4" s="28" t="e">
         <f>'k2'!O9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="28" t="str">
-        <f t="shared" ref="A5:A29" si="0">A4</f>
-        <v>11252</v>
-      </c>
-      <c r="B5" s="28" t="str">
-        <f t="shared" ref="B5:B29" si="1">B4</f>
-        <v>65</v>
-      </c>
-      <c r="C5" s="28" t="str">
-        <f t="shared" ref="C5:C29" si="2">C4</f>
-        <v>03</v>
-      </c>
-      <c r="D5" s="47">
+      <c r="A5" s="27" t="str">
+        <f t="shared" ref="A5:A29" si="1">A4</f>
+        <v>00000</v>
+      </c>
+      <c r="B5" s="27" t="str">
+        <f t="shared" ref="B5:B29" si="2">B4</f>
+        <v>00</v>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f t="shared" ref="C5:C29" si="3">C4</f>
+        <v>00</v>
+      </c>
+      <c r="D5" s="45">
         <v>4</v>
       </c>
-      <c r="E5" s="28" t="str">
-        <f t="shared" ref="E5:E29" si="3">E4</f>
+      <c r="E5" s="27" t="str">
+        <f t="shared" ref="E5:E29" si="4">E4</f>
         <v>2558</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <f>'k2'!C12</f>
         <v>0</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <f>'k2'!D12</f>
         <v>0</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <f>'k2'!E12</f>
         <v>0</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <f>'k2'!F12</f>
         <v>0</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <f>'k2'!G12</f>
         <v>0</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <f>'k2'!H12</f>
         <v>0</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="28">
         <f>'k2'!I12</f>
         <v>0</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="28">
         <f>'k2'!J12</f>
         <v>0</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="28">
         <f>'k2'!K12</f>
         <v>0</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <f>'k2'!L12</f>
         <v>0</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="28">
         <f>'k2'!M12</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="28">
         <f>'k2'!N12</f>
         <v>0</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="28">
         <f>'k2'!O12</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B6" s="28" t="str">
+      <c r="A6" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C6" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B6" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D6" s="47">
+        <v>00</v>
+      </c>
+      <c r="C6" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D6" s="45">
         <v>5</v>
       </c>
-      <c r="E6" s="28" t="str">
+      <c r="E6" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>2558</v>
+      </c>
+      <c r="F6" s="28">
+        <f>'k2'!C15</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <f>'k2'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <f>'k2'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <f>'k2'!F15</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <f>'k2'!G15</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>'k2'!H15</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <f>'k2'!I15</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
+        <f>'k2'!J15</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="28">
+        <f>'k2'!K15</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <f>'k2'!L15</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <f>'k2'!M15</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="28">
+        <f>'k2'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
+        <f>'k2'!O15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="B7" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="C7" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D7" s="45">
+        <v>6</v>
+      </c>
+      <c r="E7" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F6" s="29">
-        <f>'k2'!C15</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="29">
-        <f>'k2'!D15</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="29">
-        <f>'k2'!E15</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
-        <f>'k2'!F15</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="29">
-        <f>'k2'!G15</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="29">
-        <f>'k2'!H15</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="29">
-        <f>'k2'!I15</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="29">
-        <f>'k2'!J15</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="29">
-        <f>'k2'!K15</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="29">
-        <f>'k2'!L15</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="29">
-        <f>'k2'!M15</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="29">
-        <f>'k2'!N15</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="29">
-        <f>'k2'!O15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B7" s="28" t="str">
+      <c r="F7" s="28">
+        <f>'k2'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f>'k2'!D18</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <f>'k2'!E18</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <f>'k2'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <f>'k2'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <f>'k2'!H18</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <f>'k2'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <f>'k2'!J18</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
+        <f>'k2'!K18</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <f>'k2'!L18</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <f>'k2'!M18</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
+        <f>'k2'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
+        <f>'k2'!O18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C7" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B8" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D7" s="47">
-        <v>6</v>
-      </c>
-      <c r="E7" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C8" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D8" s="45">
+        <v>7</v>
+      </c>
+      <c r="E8" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F7" s="29">
-        <f>'k2'!C18</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
-        <f>'k2'!D18</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <f>'k2'!E18</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="29">
-        <f>'k2'!F18</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="29">
-        <f>'k2'!G18</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="29">
-        <f>'k2'!H18</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="29">
-        <f>'k2'!I18</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="29">
-        <f>'k2'!J18</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="29">
-        <f>'k2'!K18</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="29">
-        <f>'k2'!L18</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="29">
-        <f>'k2'!M18</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="29">
-        <f>'k2'!N18</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="29">
-        <f>'k2'!O18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B8" s="28" t="str">
+      <c r="F8" s="28">
+        <f>'k2'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <f>'k2'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <f>'k2'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <f>'k2'!F21</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
+        <f>'k2'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <f>'k2'!H21</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <f>'k2'!I21</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <f>'k2'!J21</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="28">
+        <f>'k2'!K21</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="28">
+        <f>'k2'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
+        <f>'k2'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
+        <f>'k2'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="28">
+        <f>'k2'!O21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C8" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B9" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D8" s="47">
-        <v>7</v>
-      </c>
-      <c r="E8" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C9" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D9" s="45">
+        <v>8</v>
+      </c>
+      <c r="E9" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F8" s="29">
-        <f>'k2'!C21</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
-        <f>'k2'!D21</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <f>'k2'!E21</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="29">
-        <f>'k2'!F21</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="29">
-        <f>'k2'!G21</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="29">
-        <f>'k2'!H21</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="29">
-        <f>'k2'!I21</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="29">
-        <f>'k2'!J21</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="29">
-        <f>'k2'!K21</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="29">
-        <f>'k2'!L21</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="29">
-        <f>'k2'!M21</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="29">
-        <f>'k2'!N21</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="29">
-        <f>'k2'!O21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B9" s="28" t="str">
+      <c r="F9" s="28">
+        <f>'k2'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <f>'k2'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <f>'k2'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <f>'k2'!F24</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <f>'k2'!G24</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <f>'k2'!H24</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <f>'k2'!I24</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="28">
+        <f>'k2'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
+        <f>'k2'!K24</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
+        <f>'k2'!L24</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <f>'k2'!M24</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28">
+        <f>'k2'!N24</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <f>'k2'!O24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C9" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B10" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D9" s="47">
-        <v>8</v>
-      </c>
-      <c r="E9" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C10" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D10" s="45">
+        <v>9</v>
+      </c>
+      <c r="E10" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F9" s="29">
-        <f>'k2'!C24</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
-        <f>'k2'!D24</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="29">
-        <f>'k2'!E24</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="29">
-        <f>'k2'!F24</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="29">
-        <f>'k2'!G24</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="29">
-        <f>'k2'!H24</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="29">
-        <f>'k2'!I24</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="29">
-        <f>'k2'!J24</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="29">
-        <f>'k2'!K24</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="29">
-        <f>'k2'!L24</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="29">
-        <f>'k2'!M24</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="29">
-        <f>'k2'!N24</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="29">
-        <f>'k2'!O24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B10" s="28" t="str">
+      <c r="F10" s="28">
+        <f>'k2'!C27</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <f>'k2'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <f>'k2'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <f>'k2'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
+        <f>'k2'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <f>'k2'!H27</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="28">
+        <f>'k2'!I27</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <f>'k2'!J27</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="28">
+        <f>'k2'!K27</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="28">
+        <f>'k2'!L27</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
+        <f>'k2'!M27</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28">
+        <f>'k2'!N27</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="28">
+        <f>'k2'!O27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C10" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B11" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D10" s="47">
-        <v>9</v>
-      </c>
-      <c r="E10" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C11" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D11" s="45">
+        <v>10</v>
+      </c>
+      <c r="E11" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F10" s="29">
-        <f>'k2'!C27</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <f>'k2'!D27</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
-        <f>'k2'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
-        <f>'k2'!F27</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
-        <f>'k2'!G27</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="29">
-        <f>'k2'!H27</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="29">
-        <f>'k2'!I27</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="29">
-        <f>'k2'!J27</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="29">
-        <f>'k2'!K27</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="29">
-        <f>'k2'!L27</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="29">
-        <f>'k2'!M27</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="29">
-        <f>'k2'!N27</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="29">
-        <f>'k2'!O27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B11" s="28" t="str">
+      <c r="F11" s="28">
+        <f>'k2'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <f>'k2'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <f>'k2'!E30</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <f>'k2'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="28">
+        <f>'k2'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <f>'k2'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="28">
+        <f>'k2'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="28">
+        <f>'k2'!J30</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="28">
+        <f>'k2'!K30</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="28">
+        <f>'k2'!L30</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
+        <f>'k2'!M30</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="28">
+        <f>'k2'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
+        <f>'k2'!O30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C11" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B12" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D11" s="47">
-        <v>10</v>
-      </c>
-      <c r="E11" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C12" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D12" s="45">
+        <v>11</v>
+      </c>
+      <c r="E12" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F11" s="29">
-        <f>'k2'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="29">
-        <f>'k2'!D30</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
-        <f>'k2'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="29">
-        <f>'k2'!F30</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="29">
-        <f>'k2'!G30</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="29">
-        <f>'k2'!H30</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="29">
-        <f>'k2'!I30</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="29">
-        <f>'k2'!J30</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="29">
-        <f>'k2'!K30</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="29">
-        <f>'k2'!L30</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="29">
-        <f>'k2'!M30</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="29">
-        <f>'k2'!N30</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="29">
-        <f>'k2'!O30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B12" s="28" t="str">
+      <c r="F12" s="28">
+        <f>'k2'!C33</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <f>'k2'!D33</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <f>'k2'!E33</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f>'k2'!F33</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
+        <f>'k2'!G33</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <f>'k2'!H33</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="28">
+        <f>'k2'!I33</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <f>'k2'!J33</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="28">
+        <f>'k2'!K33</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="28">
+        <f>'k2'!L33</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="28">
+        <f>'k2'!M33</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="28">
+        <f>'k2'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="28">
+        <f>'k2'!O33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C12" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B13" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D12" s="47">
-        <v>11</v>
-      </c>
-      <c r="E12" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C13" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D13" s="45">
+        <v>12</v>
+      </c>
+      <c r="E13" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F12" s="29">
-        <f>'k2'!C33</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="29">
-        <f>'k2'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
-        <f>'k2'!E33</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29">
-        <f>'k2'!F33</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="29">
-        <f>'k2'!G33</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="29">
-        <f>'k2'!H33</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="29">
-        <f>'k2'!I33</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="29">
-        <f>'k2'!J33</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="29">
-        <f>'k2'!K33</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="29">
-        <f>'k2'!L33</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="29">
-        <f>'k2'!M33</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="29">
-        <f>'k2'!N33</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="29">
-        <f>'k2'!O33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B13" s="28" t="str">
+      <c r="F13" s="28">
+        <f>'k2'!C36</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <f>'k2'!D36</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <f>'k2'!E36</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <f>'k2'!F36</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
+        <f>'k2'!G36</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <f>'k2'!H36</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <f>'k2'!I36</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="28">
+        <f>'k2'!J36</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="28">
+        <f>'k2'!K36</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="28">
+        <f>'k2'!L36</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
+        <f>'k2'!M36</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28">
+        <f>'k2'!N36</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="28">
+        <f>'k2'!O36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C13" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B14" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D13" s="47">
-        <v>12</v>
-      </c>
-      <c r="E13" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C14" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D14" s="45">
+        <v>13</v>
+      </c>
+      <c r="E14" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F13" s="29">
-        <f>'k2'!C36</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="29">
-        <f>'k2'!D36</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
-        <f>'k2'!E36</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="29">
-        <f>'k2'!F36</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
-        <f>'k2'!G36</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="29">
-        <f>'k2'!H36</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="29">
-        <f>'k2'!I36</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="29">
-        <f>'k2'!J36</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="29">
-        <f>'k2'!K36</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="29">
-        <f>'k2'!L36</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="29">
-        <f>'k2'!M36</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="29">
-        <f>'k2'!N36</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="29">
-        <f>'k2'!O36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B14" s="28" t="str">
+      <c r="F14" s="46">
+        <f>'k2'!C39</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="46">
+        <f>'k2'!D39</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="46">
+        <f>'k2'!E39</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="46">
+        <f>'k2'!F39</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="46">
+        <f>'k2'!G39</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="46">
+        <f>'k2'!H39</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="46">
+        <f>'k2'!I39</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="46">
+        <f>'k2'!J39</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="46">
+        <f>'k2'!K39</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="46">
+        <f>'k2'!L39</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="46">
+        <f>'k2'!M39</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="46">
+        <f>'k2'!N39</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
+        <f>'k2'!O39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C14" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B15" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D14" s="47">
-        <v>13</v>
-      </c>
-      <c r="E14" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C15" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D15" s="45">
+        <v>14</v>
+      </c>
+      <c r="E15" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F14" s="48">
-        <f>'k2'!C39</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="48">
-        <f>'k2'!D39</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="48">
-        <f>'k2'!E39</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="48">
-        <f>'k2'!F39</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="48">
-        <f>'k2'!G39</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="48">
-        <f>'k2'!H39</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="48">
-        <f>'k2'!I39</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="48">
-        <f>'k2'!J39</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="48">
-        <f>'k2'!K39</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="48">
-        <f>'k2'!L39</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="48">
-        <f>'k2'!M39</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="48">
-        <f>'k2'!N39</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="48">
-        <f>'k2'!O39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B15" s="28" t="str">
+      <c r="F15" s="46">
+        <f>'k2'!C40</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="46">
+        <f>'k2'!D40</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="46">
+        <f>'k2'!E40</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="46">
+        <f>'k2'!F40</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="46">
+        <f>'k2'!G40</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="46">
+        <f>'k2'!H40</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="46">
+        <f>'k2'!I40</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="46">
+        <f>'k2'!J40</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="46">
+        <f>'k2'!K40</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="46">
+        <f>'k2'!L40</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="46">
+        <f>'k2'!M40</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="46">
+        <f>'k2'!N40</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="46">
+        <f>'k2'!O40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C15" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B16" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D15" s="47">
-        <v>14</v>
-      </c>
-      <c r="E15" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C16" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D16" s="45">
+        <v>15</v>
+      </c>
+      <c r="E16" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F15" s="48">
-        <f>'k2'!C40</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="48">
-        <f>'k2'!D40</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="48">
-        <f>'k2'!E40</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="48">
-        <f>'k2'!F40</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="48">
-        <f>'k2'!G40</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="48">
-        <f>'k2'!H40</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="48">
-        <f>'k2'!I40</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="48">
-        <f>'k2'!J40</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="48">
-        <f>'k2'!K40</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="48">
-        <f>'k2'!L40</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="48">
-        <f>'k2'!M40</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="48">
-        <f>'k2'!N40</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="48">
-        <f>'k2'!O40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B16" s="28" t="str">
+      <c r="F16" s="46">
+        <f>'k2'!C41</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="46">
+        <f>'k2'!D41</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="46">
+        <f>'k2'!E41</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="46">
+        <f>'k2'!F41</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="46">
+        <f>'k2'!G41</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="46">
+        <f>'k2'!H41</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="46">
+        <f>'k2'!I41</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="46">
+        <f>'k2'!J41</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="46">
+        <f>'k2'!K41</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="46">
+        <f>'k2'!L41</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="46">
+        <f>'k2'!M41</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="46">
+        <f>'k2'!N41</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="46">
+        <f>'k2'!O41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C16" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B17" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D16" s="47">
-        <v>15</v>
-      </c>
-      <c r="E16" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C17" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D17" s="45">
+        <v>16</v>
+      </c>
+      <c r="E17" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F16" s="48">
-        <f>'k2'!C41</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="48">
-        <f>'k2'!D41</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="48">
-        <f>'k2'!E41</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="48">
-        <f>'k2'!F41</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="48">
-        <f>'k2'!G41</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="48">
-        <f>'k2'!H41</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="48">
-        <f>'k2'!I41</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="48">
-        <f>'k2'!J41</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="48">
-        <f>'k2'!K41</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="48">
-        <f>'k2'!L41</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="48">
-        <f>'k2'!M41</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="48">
-        <f>'k2'!N41</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="48">
-        <f>'k2'!O41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B17" s="28" t="str">
+      <c r="F17" s="46">
+        <f>'k2'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
+        <f>'k2'!D42</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="46">
+        <f>'k2'!E42</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="46">
+        <f>'k2'!F42</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="46">
+        <f>'k2'!G42</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="46">
+        <f>'k2'!H42</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="46">
+        <f>'k2'!I42</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="46">
+        <f>'k2'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="46">
+        <f>'k2'!K42</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="46">
+        <f>'k2'!L42</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="46">
+        <f>'k2'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="46">
+        <f>'k2'!N42</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="46">
+        <f>'k2'!O42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C17" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B18" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D17" s="47">
-        <v>16</v>
-      </c>
-      <c r="E17" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C18" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D18" s="45">
+        <v>17</v>
+      </c>
+      <c r="E18" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F17" s="48">
-        <f>'k2'!C42</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="48">
-        <f>'k2'!D42</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="48">
-        <f>'k2'!E42</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="48">
-        <f>'k2'!F42</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="48">
-        <f>'k2'!G42</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="48">
-        <f>'k2'!H42</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="48">
-        <f>'k2'!I42</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="48">
-        <f>'k2'!J42</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="48">
-        <f>'k2'!K42</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="48">
-        <f>'k2'!L42</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="48">
-        <f>'k2'!M42</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="48">
-        <f>'k2'!N42</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="48">
-        <f>'k2'!O42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B18" s="28" t="str">
+      <c r="F18" s="46">
+        <f>'k2'!C43</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="46">
+        <f>'k2'!D43</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="46">
+        <f>'k2'!E43</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="46">
+        <f>'k2'!F43</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="46">
+        <f>'k2'!G43</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="46">
+        <f>'k2'!H43</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="46">
+        <f>'k2'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="46">
+        <f>'k2'!J43</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="46">
+        <f>'k2'!K43</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="46">
+        <f>'k2'!L43</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="46">
+        <f>'k2'!M43</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <f>'k2'!N43</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="46">
+        <f>'k2'!O43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C18" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B19" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D18" s="47">
-        <v>17</v>
-      </c>
-      <c r="E18" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C19" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D19" s="45">
+        <v>18</v>
+      </c>
+      <c r="E19" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F18" s="48">
-        <f>'k2'!C43</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="48">
-        <f>'k2'!D43</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="48">
-        <f>'k2'!E43</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="48">
-        <f>'k2'!F43</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="48">
-        <f>'k2'!G43</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="48">
-        <f>'k2'!H43</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="48">
-        <f>'k2'!I43</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="48">
-        <f>'k2'!J43</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="48">
-        <f>'k2'!K43</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="48">
-        <f>'k2'!L43</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="48">
-        <f>'k2'!M43</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="48">
-        <f>'k2'!N43</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="48">
-        <f>'k2'!O43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B19" s="28" t="str">
+      <c r="F19" s="46">
+        <f>'k2'!C44</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="46">
+        <f>'k2'!D44</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="46">
+        <f>'k2'!E44</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="46">
+        <f>'k2'!F44</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f>'k2'!G44</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="46">
+        <f>'k2'!H44</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="46">
+        <f>'k2'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="46">
+        <f>'k2'!J44</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="46">
+        <f>'k2'!K44</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="46">
+        <f>'k2'!L44</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="46">
+        <f>'k2'!M44</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="46">
+        <f>'k2'!N44</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="46">
+        <f>'k2'!O44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C19" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B20" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D19" s="47">
-        <v>18</v>
-      </c>
-      <c r="E19" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C20" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D20" s="45">
+        <v>19</v>
+      </c>
+      <c r="E20" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F19" s="48">
-        <f>'k2'!C44</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="48">
-        <f>'k2'!D44</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="48">
-        <f>'k2'!E44</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="48">
-        <f>'k2'!F44</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="48">
-        <f>'k2'!G44</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="48">
-        <f>'k2'!H44</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="48">
-        <f>'k2'!I44</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="48">
-        <f>'k2'!J44</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="48">
-        <f>'k2'!K44</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="48">
-        <f>'k2'!L44</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="48">
-        <f>'k2'!M44</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="48">
-        <f>'k2'!N44</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="48">
-        <f>'k2'!O44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B20" s="28" t="str">
+      <c r="F20" s="46">
+        <f>'k2'!C45</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <f>'k2'!D45</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <f>'k2'!E45</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <f>'k2'!F45</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <f>'k2'!G45</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <f>'k2'!H45</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <f>'k2'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <f>'k2'!J45</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <f>'k2'!K45</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <f>'k2'!L45</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <f>'k2'!M45</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="46">
+        <f>'k2'!N45</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <f>'k2'!O45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C20" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B21" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D20" s="47">
-        <v>19</v>
-      </c>
-      <c r="E20" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C21" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D21" s="45">
+        <v>20</v>
+      </c>
+      <c r="E21" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F20" s="48">
-        <f>'k2'!C45</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="48">
-        <f>'k2'!D45</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="48">
-        <f>'k2'!E45</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="48">
-        <f>'k2'!F45</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="48">
-        <f>'k2'!G45</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="48">
-        <f>'k2'!H45</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
-        <f>'k2'!I45</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="48">
-        <f>'k2'!J45</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="48">
-        <f>'k2'!K45</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="48">
-        <f>'k2'!L45</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="48">
-        <f>'k2'!M45</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="48">
-        <f>'k2'!N45</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="48">
-        <f>'k2'!O45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B21" s="28" t="str">
+      <c r="F21" s="46">
+        <f>'k2'!C46</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f>'k2'!D46</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f>'k2'!E46</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f>'k2'!F46</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <f>'k2'!G46</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <f>'k2'!H46</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <f>'k2'!I46</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f>'k2'!J46</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <f>'k2'!K46</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="46">
+        <f>'k2'!L46</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="46">
+        <f>'k2'!M46</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="46">
+        <f>'k2'!N46</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
+        <f>'k2'!O46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C21" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B22" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D21" s="47">
-        <v>20</v>
-      </c>
-      <c r="E21" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C22" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D22" s="45">
+        <v>21</v>
+      </c>
+      <c r="E22" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F21" s="48">
-        <f>'k2'!C46</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="48">
-        <f>'k2'!D46</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="48">
-        <f>'k2'!E46</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="48">
-        <f>'k2'!F46</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="48">
-        <f>'k2'!G46</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="48">
-        <f>'k2'!H46</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="48">
-        <f>'k2'!I46</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="48">
-        <f>'k2'!J46</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="48">
-        <f>'k2'!K46</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="48">
-        <f>'k2'!L46</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="48">
-        <f>'k2'!M46</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="48">
-        <f>'k2'!N46</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="48">
-        <f>'k2'!O46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B22" s="28" t="str">
+      <c r="F22" s="46">
+        <f>'k2'!C47</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="46">
+        <f>'k2'!D47</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="46">
+        <f>'k2'!E47</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="46">
+        <f>'k2'!F47</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="46">
+        <f>'k2'!G47</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="46">
+        <f>'k2'!H47</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="46">
+        <f>'k2'!I47</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="46">
+        <f>'k2'!J47</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
+        <f>'k2'!K47</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="46">
+        <f>'k2'!L47</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
+        <f>'k2'!M47</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="46">
+        <f>'k2'!N47</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <f>'k2'!O47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C22" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B23" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D22" s="47">
-        <v>21</v>
-      </c>
-      <c r="E22" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C23" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D23" s="45">
+        <v>22</v>
+      </c>
+      <c r="E23" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F22" s="48">
-        <f>'k2'!C47</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="48">
-        <f>'k2'!D47</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="48">
-        <f>'k2'!E47</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="48">
-        <f>'k2'!F47</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="48">
-        <f>'k2'!G47</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="48">
-        <f>'k2'!H47</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="48">
-        <f>'k2'!I47</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="48">
-        <f>'k2'!J47</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="48">
-        <f>'k2'!K47</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="48">
-        <f>'k2'!L47</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="48">
-        <f>'k2'!M47</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="48">
-        <f>'k2'!N47</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="48">
-        <f>'k2'!O47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B23" s="28" t="str">
+      <c r="F23" s="28">
+        <f>'k2'!C48</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <f>'k2'!D48</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="28">
+        <f>'k2'!E48</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <f>'k2'!F48</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="28">
+        <f>'k2'!G48</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
+        <f>'k2'!H48</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="28">
+        <f>'k2'!I48</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="28">
+        <f>'k2'!J48</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="28">
+        <f>'k2'!K48</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="28">
+        <f>'k2'!L48</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="28">
+        <f>'k2'!M48</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="28">
+        <f>'k2'!N48</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="28">
+        <f>'k2'!O48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C23" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B24" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D23" s="47">
-        <v>22</v>
-      </c>
-      <c r="E23" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C24" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D24" s="45">
+        <v>23</v>
+      </c>
+      <c r="E24" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F23" s="29">
-        <f>'k2'!C48</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="29">
-        <f>'k2'!D48</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <f>'k2'!E48</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="29">
-        <f>'k2'!F48</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="29">
-        <f>'k2'!G48</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="29">
-        <f>'k2'!H48</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="29">
-        <f>'k2'!I48</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="29">
-        <f>'k2'!J48</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="29">
-        <f>'k2'!K48</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="29">
-        <f>'k2'!L48</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="29">
-        <f>'k2'!M48</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="29">
-        <f>'k2'!N48</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="29">
-        <f>'k2'!O48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B24" s="28" t="str">
+      <c r="F24" s="28">
+        <f>'k2'!C51</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
+        <f>'k2'!D51</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="28">
+        <f>'k2'!E51</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="28">
+        <f>'k2'!F51</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="28">
+        <f>'k2'!G51</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="28">
+        <f>'k2'!H51</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="28">
+        <f>'k2'!I51</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="28">
+        <f>'k2'!J51</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="28">
+        <f>'k2'!K51</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="28">
+        <f>'k2'!L51</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="28">
+        <f>'k2'!M51</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="28">
+        <f>'k2'!N51</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="28">
+        <f>'k2'!O51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C24" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B25" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D24" s="47">
-        <v>23</v>
-      </c>
-      <c r="E24" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C25" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D25" s="45">
+        <v>24</v>
+      </c>
+      <c r="E25" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F24" s="29">
-        <f>'k2'!C51</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="29">
-        <f>'k2'!D51</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="29">
-        <f>'k2'!E51</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="29">
-        <f>'k2'!F51</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="29">
-        <f>'k2'!G51</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="29">
-        <f>'k2'!H51</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="29">
-        <f>'k2'!I51</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="29">
-        <f>'k2'!J51</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="29">
-        <f>'k2'!K51</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="29">
-        <f>'k2'!L51</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="29">
-        <f>'k2'!M51</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="29">
-        <f>'k2'!N51</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="29">
-        <f>'k2'!O51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B25" s="28" t="str">
+      <c r="F25" s="28">
+        <f>'k2'!C54</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <f>'k2'!D54</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="28">
+        <f>'k2'!E54</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <f>'k2'!F54</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="28">
+        <f>'k2'!G54</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="28">
+        <f>'k2'!H54</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="28">
+        <f>'k2'!I54</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="28">
+        <f>'k2'!J54</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="28">
+        <f>'k2'!K54</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="28">
+        <f>'k2'!L54</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="28">
+        <f>'k2'!M54</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="28">
+        <f>'k2'!N54</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="28">
+        <f>'k2'!O54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C25" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B26" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D25" s="47">
-        <v>24</v>
-      </c>
-      <c r="E25" s="28" t="str">
+        <v>00</v>
+      </c>
+      <c r="C26" s="27" t="str">
         <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D26" s="45">
+        <v>25</v>
+      </c>
+      <c r="E26" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F25" s="29">
-        <f>'k2'!C54</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="29">
-        <f>'k2'!D54</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="29">
-        <f>'k2'!E54</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="29">
-        <f>'k2'!F54</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="29">
-        <f>'k2'!G54</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="29">
-        <f>'k2'!H54</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="29">
-        <f>'k2'!I54</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="29">
-        <f>'k2'!J54</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="29">
-        <f>'k2'!K54</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="29">
-        <f>'k2'!L54</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="29">
-        <f>'k2'!M54</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="29">
-        <f>'k2'!N54</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="29">
-        <f>'k2'!O54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B26" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C26" s="28" t="str">
-        <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D26" s="47">
-        <v>25</v>
-      </c>
-      <c r="E26" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v>2558</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <f>'k2'!C57</f>
         <v>50</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <f>'k2'!D57</f>
         <v>0</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <f>'k2'!E57</f>
         <v>0</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <f>'k2'!F57</f>
         <v>0</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <f>'k2'!G57</f>
         <v>0</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="28">
         <f>'k2'!H57</f>
         <v>0</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="28">
         <f>'k2'!I57</f>
         <v>0</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="28">
         <f>'k2'!J57</f>
         <v>0</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="28">
         <f>'k2'!K57</f>
         <v>0</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="28">
         <f>'k2'!L57</f>
         <v>0</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="28">
         <f>'k2'!M57</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="28">
         <f>'k2'!N57</f>
         <v>0</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="28">
         <f>'k2'!O57</f>
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B27" s="28" t="str">
+      <c r="A27" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C27" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B27" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D27" s="47">
+        <v>00</v>
+      </c>
+      <c r="C27" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D27" s="45">
         <v>26</v>
       </c>
-      <c r="E27" s="28" t="str">
-        <f t="shared" si="3"/>
+      <c r="E27" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="46">
         <f>'k2'!C60</f>
         <v>1</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="46">
         <f>'k2'!D60</f>
         <v>1</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="46">
         <f>'k2'!E60</f>
         <v>0</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="46">
         <f>'k2'!F60</f>
         <v>0</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="46">
         <f>'k2'!G60</f>
         <v>0</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="46">
         <f>'k2'!H60</f>
         <v>0</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="46">
         <f>'k2'!I60</f>
         <v>0</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="46">
         <f>'k2'!J60</f>
         <v>0</v>
       </c>
-      <c r="N27" s="48">
+      <c r="N27" s="46">
         <f>'k2'!K60</f>
         <v>0</v>
       </c>
-      <c r="O27" s="48">
+      <c r="O27" s="46">
         <f>'k2'!L60</f>
         <v>0</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="46">
         <f>'k2'!M60</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="48">
+      <c r="Q27" s="46">
         <f>'k2'!N60</f>
         <v>0</v>
       </c>
-      <c r="R27" s="48">
+      <c r="R27" s="46">
         <f>'k2'!O60</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B28" s="28" t="str">
+      <c r="A28" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C28" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B28" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D28" s="47">
+        <v>00</v>
+      </c>
+      <c r="C28" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D28" s="45">
         <v>27</v>
       </c>
-      <c r="E28" s="28" t="str">
-        <f t="shared" si="3"/>
+      <c r="E28" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="46">
         <f>'k2'!C61</f>
         <v>1</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="46">
         <f>'k2'!D61</f>
         <v>2</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="46">
         <f>'k2'!E61</f>
         <v>1</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="46">
         <f>'k2'!F61</f>
         <v>0</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="46">
         <f>'k2'!G61</f>
         <v>0</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="46">
         <f>'k2'!H61</f>
         <v>0</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="46">
         <f>'k2'!I61</f>
         <v>0</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="46">
         <f>'k2'!J61</f>
         <v>0</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="46">
         <f>'k2'!K61</f>
         <v>0</v>
       </c>
-      <c r="O28" s="48">
+      <c r="O28" s="46">
         <f>'k2'!L61</f>
         <v>0</v>
       </c>
-      <c r="P28" s="48">
+      <c r="P28" s="46">
         <f>'k2'!M61</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="48">
+      <c r="Q28" s="46">
         <f>'k2'!N61</f>
         <v>0</v>
       </c>
-      <c r="R28" s="48">
+      <c r="R28" s="46">
         <f>'k2'!O61</f>
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>11252</v>
-      </c>
-      <c r="B29" s="28" t="str">
+      <c r="A29" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C29" s="28" t="str">
+        <v>00000</v>
+      </c>
+      <c r="B29" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>03</v>
-      </c>
-      <c r="D29" s="47">
+        <v>00</v>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="D29" s="45">
         <v>28</v>
       </c>
-      <c r="E29" s="28" t="str">
-        <f t="shared" si="3"/>
+      <c r="E29" s="27" t="str">
+        <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="46">
         <f>'k2'!C62</f>
         <v>1</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="46">
         <f>'k2'!D62</f>
         <v>1</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="46">
         <f>'k2'!E62</f>
         <v>0</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="46">
         <f>'k2'!F62</f>
         <v>0</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="46">
         <f>'k2'!G62</f>
         <v>0</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="46">
         <f>'k2'!H62</f>
         <v>0</v>
       </c>
-      <c r="L29" s="48">
+      <c r="L29" s="46">
         <f>'k2'!I62</f>
         <v>0</v>
       </c>
-      <c r="M29" s="48">
+      <c r="M29" s="46">
         <f>'k2'!J62</f>
         <v>0</v>
       </c>
-      <c r="N29" s="48">
+      <c r="N29" s="46">
         <f>'k2'!K62</f>
         <v>0</v>
       </c>
-      <c r="O29" s="48">
+      <c r="O29" s="46">
         <f>'k2'!L62</f>
         <v>0</v>
       </c>
-      <c r="P29" s="48">
+      <c r="P29" s="46">
         <f>'k2'!M62</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="48">
+      <c r="Q29" s="46">
         <f>'k2'!N62</f>
         <v>0</v>
       </c>
-      <c r="R29" s="48">
+      <c r="R29" s="46">
         <f>'k2'!O62</f>
         <v>2</v>
       </c>

--- a/web/hos.xlsx
+++ b/web/hos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>ร้อยละขององค์กรพยาบาลที่ผ่านเกณฑ์ธรรมาภิบาล</t>
-  </si>
-  <si>
-    <t>ระดับความพึงพอใจในงานของบุคลากรทางการพยาบาล</t>
   </si>
   <si>
     <t>ระดับความผูกพันต่อองค์กร</t>
@@ -517,7 +514,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,12 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,16 +781,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,7 +809,7 @@
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -833,13 +824,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -848,7 +839,7 @@
     <xf numFmtId="43" fontId="7" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="14" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="187" fontId="0" fillId="13" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="187" fontId="6" fillId="4" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -926,9 +917,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -956,8 +944,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1281,10 +1272,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.75"/>
   <cols>
     <col min="1" max="1" width="40.375" style="21" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="22" customWidth="1"/>
@@ -1293,37 +1284,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="40.5">
       <c r="A1" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5">
       <c r="A2" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.5">
       <c r="A3" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40.5">
       <c r="A4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1335,13 +1326,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55:N56"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1361,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="35"/>
-      <c r="D1" s="76">
+      <c r="D1" s="75">
         <f>'k1'!B4-1</f>
         <v>2557</v>
       </c>
@@ -1820,7 +1811,7 @@
     <row r="14" spans="1:15" ht="23.25" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -2214,7 +2205,7 @@
     <row r="25" spans="1:15" ht="21.75">
       <c r="A25" s="4"/>
       <c r="B25" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -2236,7 +2227,7 @@
     <row r="26" spans="1:15">
       <c r="A26" s="4"/>
       <c r="B26" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -2260,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="30">
         <f>IF(C29=0,0,C28*100/C29)</f>
@@ -2315,10 +2306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" customHeight="1">
+    <row r="28" spans="1:15" ht="24" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
@@ -2340,7 +2331,7 @@
     <row r="29" spans="1:15">
       <c r="A29" s="4"/>
       <c r="B29" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
@@ -2364,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="30">
         <f>IF(C32=0,0,C31*100/C32)</f>
@@ -2422,7 +2413,7 @@
     <row r="31" spans="1:15" s="11" customFormat="1">
       <c r="A31" s="4"/>
       <c r="B31" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -2444,7 +2435,7 @@
     <row r="32" spans="1:15" s="11" customFormat="1">
       <c r="A32" s="4"/>
       <c r="B32" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
@@ -2468,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="30">
         <f>IF(C35=0,0,C34*100/C35)</f>
@@ -2526,7 +2517,7 @@
     <row r="34" spans="1:15">
       <c r="A34" s="14"/>
       <c r="B34" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
@@ -2548,7 +2539,7 @@
     <row r="35" spans="1:15">
       <c r="A35" s="14"/>
       <c r="B35" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
@@ -2572,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="30">
         <f>IF(C38=0,0,C37*100/C38)</f>
@@ -2630,7 +2621,7 @@
     <row r="37" spans="1:15">
       <c r="A37" s="4"/>
       <c r="B37" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
@@ -2652,7 +2643,7 @@
     <row r="38" spans="1:15">
       <c r="A38" s="4"/>
       <c r="B38" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
@@ -2676,7 +2667,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -2700,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
@@ -2715,7 +2706,7 @@
       <c r="M40" s="31"/>
       <c r="N40" s="31"/>
       <c r="O40" s="42">
-        <f t="shared" ref="O40:O47" si="14">SUM(C40:N40)</f>
+        <f t="shared" ref="O40:O46" si="14">SUM(C40:N40)</f>
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +2765,9 @@
       <c r="B43" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="31">
+        <v>1</v>
+      </c>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -2788,17 +2781,19 @@
       <c r="N43" s="31"/>
       <c r="O43" s="42">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="26.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="13">
         <v>18</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="31">
+        <v>1</v>
+      </c>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
@@ -2812,15 +2807,15 @@
       <c r="N44" s="31"/>
       <c r="O44" s="42">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="21">
+      <c r="A45" s="15">
         <v>19</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
@@ -2839,12 +2834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="21">
-      <c r="A46" s="15">
+    <row r="46" spans="1:15" ht="21.75">
+      <c r="A46" s="2">
         <v>20</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
@@ -2863,94 +2858,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="21.75">
+    <row r="47" spans="1:15">
       <c r="A47" s="2">
         <v>21</v>
       </c>
-      <c r="B47" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="42">
-        <f t="shared" si="14"/>
+      <c r="B47" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="30">
+        <f>IF(C49=0,0,C48*100/C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="30">
+        <f t="shared" ref="D47:O47" si="15">IF(D49=0,0,D48*100/D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="43">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="2">
-        <v>22</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="30">
-        <f>IF(C50=0,0,C49*100/C50)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="30">
-        <f t="shared" ref="D48:O48" si="15">IF(D50=0,0,D49*100/D50)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="43">
-        <f t="shared" si="15"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="42">
+        <f>SUM(C48:N48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="70" t="s">
-        <v>16</v>
+      <c r="A49" s="9"/>
+      <c r="B49" s="69" t="s">
+        <v>17</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
@@ -2969,92 +2962,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="42">
-        <f>SUM(C50:N50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="23.25">
-      <c r="A51" s="2">
-        <v>23</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="30">
-        <f>IF(C53=0,0,C52*100/C53)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="30">
-        <f t="shared" ref="D51:O51" si="16">IF(D53=0,0,D52*100/D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="30">
+    <row r="50" spans="1:15" ht="23.25">
+      <c r="A50" s="2">
+        <v>22</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="30">
+        <f>IF(C52=0,0,C51*100/C52)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="30">
+        <f t="shared" ref="D50:O50" si="16">IF(D52=0,0,D51*100/D52)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K51" s="30">
+      <c r="K50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M51" s="30">
+      <c r="M50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N51" s="30">
+      <c r="N50" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O51" s="43">
+      <c r="O50" s="43">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="50" t="s">
+    <row r="51" spans="1:15" ht="21" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="50" t="s">
         <v>18</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="42">
+        <f>SUM(C51:N51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="21">
+      <c r="A52" s="9"/>
+      <c r="B52" s="70" t="s">
+        <v>19</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
@@ -3073,92 +3066,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="21">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:15" ht="33">
+      <c r="A53" s="2">
+        <v>23</v>
+      </c>
       <c r="B53" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="42">
-        <f>SUM(C53:N53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="33">
-      <c r="A54" s="2">
-        <v>24</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="30">
-        <f>IF(C56=0,0,C55*100/C56)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="30">
-        <f t="shared" ref="D54:O54" si="17">IF(D56=0,0,D55*100/D56)</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="30">
+        <v>73</v>
+      </c>
+      <c r="C53" s="30">
+        <f>IF(C55=0,0,C54*100/C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="30">
+        <f t="shared" ref="D53:O53" si="17">IF(D55=0,0,D54*100/D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J54" s="30">
+      <c r="J53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K54" s="30">
+      <c r="K53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M54" s="30">
+      <c r="M53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N54" s="30">
+      <c r="N53" s="30">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O54" s="43">
+      <c r="O53" s="43">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="50" t="s">
+    <row r="54" spans="1:15" ht="15" customHeight="1">
+      <c r="A54" s="5"/>
+      <c r="B54" s="50" t="s">
         <v>20</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="42">
+        <f>SUM(C54:N54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="21">
+      <c r="A55" s="6"/>
+      <c r="B55" s="70" t="s">
+        <v>21</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
@@ -3177,96 +3170,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="21">
-      <c r="A56" s="6"/>
-      <c r="B56" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="42">
-        <f>SUM(C56:N56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="13">
-        <v>25</v>
-      </c>
+    <row r="56" spans="1:15">
+      <c r="A56" s="13">
+        <v>24</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="30">
+        <f>IF(C58=0,0,C57*100/C58)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="30">
+        <f t="shared" ref="D56:O56" si="18">IF(D58=0,0,D57*100/D58)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="22.5">
+      <c r="A57" s="14"/>
       <c r="B57" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="30">
-        <f>IF(C59=0,0,C58*100/C59)</f>
-        <v>50</v>
-      </c>
-      <c r="D57" s="30">
-        <f t="shared" ref="D57:O57" si="18">IF(D59=0,0,D58*100/D59)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="43">
-        <f t="shared" si="18"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="22.5">
+        <v>57</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="42">
+        <f>SUM(C57:N57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="16.5" customHeight="1">
       <c r="A58" s="14"/>
-      <c r="B58" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="31">
-        <v>1</v>
-      </c>
+      <c r="B58" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="31"/>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
@@ -3280,17 +3271,17 @@
       <c r="N58" s="31"/>
       <c r="O58" s="42">
         <f>SUM(C58:N58)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A59" s="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2">
+        <v>25</v>
+      </c>
       <c r="B59" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="31">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C59" s="31"/>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
       <c r="F59" s="31"/>
@@ -3304,22 +3295,18 @@
       <c r="N59" s="31"/>
       <c r="O59" s="42">
         <f>SUM(C59:N59)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="2">
+      <c r="A60" s="12">
         <v>26</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="31">
-        <v>1</v>
-      </c>
-      <c r="D60" s="31">
-        <v>1</v>
-      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31"/>
       <c r="G60" s="31"/>
@@ -3332,25 +3319,19 @@
       <c r="N60" s="31"/>
       <c r="O60" s="42">
         <f>SUM(C60:N60)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="16.5" customHeight="1">
       <c r="A61" s="12">
         <v>27</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="31">
-        <v>1</v>
-      </c>
-      <c r="D61" s="31">
-        <v>2</v>
-      </c>
-      <c r="E61" s="31">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="31"/>
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
@@ -3362,40 +3343,29 @@
       <c r="N61" s="31"/>
       <c r="O61" s="42">
         <f>SUM(C61:N61)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A62" s="12">
-        <v>28</v>
-      </c>
-      <c r="B62" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="31">
-        <v>1</v>
-      </c>
-      <c r="D62" s="31">
-        <v>1</v>
-      </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="42">
-        <f>SUM(C62:N62)</f>
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="14"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="47"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="14"/>
-      <c r="B63" s="74"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
@@ -3410,39 +3380,22 @@
       <c r="N63" s="33"/>
       <c r="O63" s="47"/>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="47"/>
+    <row r="65" spans="2:5">
+      <c r="B65" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="19" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>50</v>
+      <c r="E67" s="76" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3459,13 +3412,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25"/>
   <cols>
     <col min="1" max="3" width="9" style="27"/>
     <col min="4" max="4" width="9" style="45"/>
@@ -3474,58 +3427,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>101</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3749,22 +3702,22 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="27" t="str">
-        <f t="shared" ref="A5:A29" si="1">A4</f>
+        <f t="shared" ref="A5:A28" si="1">A4</f>
         <v>00000</v>
       </c>
       <c r="B5" s="27" t="str">
-        <f t="shared" ref="B5:B29" si="2">B4</f>
+        <f t="shared" ref="B5:B28" si="2">B4</f>
         <v>00</v>
       </c>
       <c r="C5" s="27" t="str">
-        <f t="shared" ref="C5:C29" si="3">C4</f>
+        <f t="shared" ref="C5:C28" si="3">C4</f>
         <v>00</v>
       </c>
       <c r="D5" s="45">
         <v>4</v>
       </c>
       <c r="E5" s="27" t="str">
-        <f t="shared" ref="E5:E29" si="4">E4</f>
+        <f t="shared" ref="E5:E28" si="4">E4</f>
         <v>2558</v>
       </c>
       <c r="F5" s="28">
@@ -4718,7 +4671,7 @@
       </c>
       <c r="F18" s="46">
         <f>'k2'!C43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="46">
         <f>'k2'!D43</f>
@@ -4766,7 +4719,7 @@
       </c>
       <c r="R18" s="46">
         <f>'k2'!O43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -4791,7 +4744,7 @@
       </c>
       <c r="F19" s="46">
         <f>'k2'!C44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="46">
         <f>'k2'!D44</f>
@@ -4839,7 +4792,7 @@
       </c>
       <c r="R19" s="46">
         <f>'k2'!O44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5008,55 +4961,55 @@
         <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="28">
         <f>'k2'!C47</f>
         <v>0</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="28">
         <f>'k2'!D47</f>
         <v>0</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="28">
         <f>'k2'!E47</f>
         <v>0</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="28">
         <f>'k2'!F47</f>
         <v>0</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="28">
         <f>'k2'!G47</f>
         <v>0</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="28">
         <f>'k2'!H47</f>
         <v>0</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="28">
         <f>'k2'!I47</f>
         <v>0</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="28">
         <f>'k2'!J47</f>
         <v>0</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="28">
         <f>'k2'!K47</f>
         <v>0</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22" s="28">
         <f>'k2'!L47</f>
         <v>0</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="28">
         <f>'k2'!M47</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="28">
         <f>'k2'!N47</f>
         <v>0</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="28">
         <f>'k2'!O47</f>
         <v>0</v>
       </c>
@@ -5082,55 +5035,55 @@
         <v>2558</v>
       </c>
       <c r="F23" s="28">
-        <f>'k2'!C48</f>
+        <f>'k2'!C50</f>
         <v>0</v>
       </c>
       <c r="G23" s="28">
-        <f>'k2'!D48</f>
+        <f>'k2'!D50</f>
         <v>0</v>
       </c>
       <c r="H23" s="28">
-        <f>'k2'!E48</f>
+        <f>'k2'!E50</f>
         <v>0</v>
       </c>
       <c r="I23" s="28">
-        <f>'k2'!F48</f>
+        <f>'k2'!F50</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <f>'k2'!G48</f>
+        <f>'k2'!G50</f>
         <v>0</v>
       </c>
       <c r="K23" s="28">
-        <f>'k2'!H48</f>
+        <f>'k2'!H50</f>
         <v>0</v>
       </c>
       <c r="L23" s="28">
-        <f>'k2'!I48</f>
+        <f>'k2'!I50</f>
         <v>0</v>
       </c>
       <c r="M23" s="28">
-        <f>'k2'!J48</f>
+        <f>'k2'!J50</f>
         <v>0</v>
       </c>
       <c r="N23" s="28">
-        <f>'k2'!K48</f>
+        <f>'k2'!K50</f>
         <v>0</v>
       </c>
       <c r="O23" s="28">
-        <f>'k2'!L48</f>
+        <f>'k2'!L50</f>
         <v>0</v>
       </c>
       <c r="P23" s="28">
-        <f>'k2'!M48</f>
+        <f>'k2'!M50</f>
         <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <f>'k2'!N48</f>
+        <f>'k2'!N50</f>
         <v>0</v>
       </c>
       <c r="R23" s="28">
-        <f>'k2'!O48</f>
+        <f>'k2'!O50</f>
         <v>0</v>
       </c>
     </row>
@@ -5155,55 +5108,55 @@
         <v>2558</v>
       </c>
       <c r="F24" s="28">
-        <f>'k2'!C51</f>
+        <f>'k2'!C53</f>
         <v>0</v>
       </c>
       <c r="G24" s="28">
-        <f>'k2'!D51</f>
+        <f>'k2'!D53</f>
         <v>0</v>
       </c>
       <c r="H24" s="28">
-        <f>'k2'!E51</f>
+        <f>'k2'!E53</f>
         <v>0</v>
       </c>
       <c r="I24" s="28">
-        <f>'k2'!F51</f>
+        <f>'k2'!F53</f>
         <v>0</v>
       </c>
       <c r="J24" s="28">
-        <f>'k2'!G51</f>
+        <f>'k2'!G53</f>
         <v>0</v>
       </c>
       <c r="K24" s="28">
-        <f>'k2'!H51</f>
+        <f>'k2'!H53</f>
         <v>0</v>
       </c>
       <c r="L24" s="28">
-        <f>'k2'!I51</f>
+        <f>'k2'!I53</f>
         <v>0</v>
       </c>
       <c r="M24" s="28">
-        <f>'k2'!J51</f>
+        <f>'k2'!J53</f>
         <v>0</v>
       </c>
       <c r="N24" s="28">
-        <f>'k2'!K51</f>
+        <f>'k2'!K53</f>
         <v>0</v>
       </c>
       <c r="O24" s="28">
-        <f>'k2'!L51</f>
+        <f>'k2'!L53</f>
         <v>0</v>
       </c>
       <c r="P24" s="28">
-        <f>'k2'!M51</f>
+        <f>'k2'!M53</f>
         <v>0</v>
       </c>
       <c r="Q24" s="28">
-        <f>'k2'!N51</f>
+        <f>'k2'!N53</f>
         <v>0</v>
       </c>
       <c r="R24" s="28">
-        <f>'k2'!O51</f>
+        <f>'k2'!O53</f>
         <v>0</v>
       </c>
     </row>
@@ -5228,55 +5181,55 @@
         <v>2558</v>
       </c>
       <c r="F25" s="28">
-        <f>'k2'!C54</f>
+        <f>'k2'!C56</f>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f>'k2'!D54</f>
+        <f>'k2'!D56</f>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f>'k2'!E54</f>
+        <f>'k2'!E56</f>
         <v>0</v>
       </c>
       <c r="I25" s="28">
-        <f>'k2'!F54</f>
+        <f>'k2'!F56</f>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f>'k2'!G54</f>
+        <f>'k2'!G56</f>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f>'k2'!H54</f>
+        <f>'k2'!H56</f>
         <v>0</v>
       </c>
       <c r="L25" s="28">
-        <f>'k2'!I54</f>
+        <f>'k2'!I56</f>
         <v>0</v>
       </c>
       <c r="M25" s="28">
-        <f>'k2'!J54</f>
+        <f>'k2'!J56</f>
         <v>0</v>
       </c>
       <c r="N25" s="28">
-        <f>'k2'!K54</f>
+        <f>'k2'!K56</f>
         <v>0</v>
       </c>
       <c r="O25" s="28">
-        <f>'k2'!L54</f>
+        <f>'k2'!L56</f>
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f>'k2'!M54</f>
+        <f>'k2'!M56</f>
         <v>0</v>
       </c>
       <c r="Q25" s="28">
-        <f>'k2'!N54</f>
+        <f>'k2'!N56</f>
         <v>0</v>
       </c>
       <c r="R25" s="28">
-        <f>'k2'!O54</f>
+        <f>'k2'!O56</f>
         <v>0</v>
       </c>
     </row>
@@ -5300,57 +5253,57 @@
         <f t="shared" si="4"/>
         <v>2558</v>
       </c>
-      <c r="F26" s="28">
-        <f>'k2'!C57</f>
-        <v>50</v>
-      </c>
-      <c r="G26" s="28">
-        <f>'k2'!D57</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="28">
-        <f>'k2'!E57</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <f>'k2'!F57</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="28">
-        <f>'k2'!G57</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="28">
-        <f>'k2'!H57</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="28">
-        <f>'k2'!I57</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="28">
-        <f>'k2'!J57</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="28">
-        <f>'k2'!K57</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="28">
-        <f>'k2'!L57</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="28">
-        <f>'k2'!M57</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="28">
-        <f>'k2'!N57</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="28">
-        <f>'k2'!O57</f>
-        <v>50</v>
+      <c r="F26" s="46">
+        <f>'k2'!C59</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="46">
+        <f>'k2'!D59</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="46">
+        <f>'k2'!E59</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="46">
+        <f>'k2'!F59</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="46">
+        <f>'k2'!G59</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="46">
+        <f>'k2'!H59</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="46">
+        <f>'k2'!I59</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="46">
+        <f>'k2'!J59</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="46">
+        <f>'k2'!K59</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="46">
+        <f>'k2'!L59</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="46">
+        <f>'k2'!M59</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="46">
+        <f>'k2'!N59</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <f>'k2'!O59</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -5375,11 +5328,11 @@
       </c>
       <c r="F27" s="46">
         <f>'k2'!C60</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="46">
         <f>'k2'!D60</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="46">
         <f>'k2'!E60</f>
@@ -5423,7 +5376,7 @@
       </c>
       <c r="R27" s="46">
         <f>'k2'!O60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -5448,15 +5401,15 @@
       </c>
       <c r="F28" s="46">
         <f>'k2'!C61</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="46">
         <f>'k2'!D61</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" s="46">
         <f>'k2'!E61</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="46">
         <f>'k2'!F61</f>
@@ -5496,84 +5449,10 @@
       </c>
       <c r="R28" s="46">
         <f>'k2'!O61</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
-      </c>
-      <c r="B29" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>00</v>
-      </c>
-      <c r="C29" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
-      </c>
-      <c r="D29" s="45">
-        <v>28</v>
-      </c>
-      <c r="E29" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v>2558</v>
-      </c>
-      <c r="F29" s="46">
-        <f>'k2'!C62</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="46">
-        <f>'k2'!D62</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="46">
-        <f>'k2'!E62</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="46">
-        <f>'k2'!F62</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="46">
-        <f>'k2'!G62</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="46">
-        <f>'k2'!H62</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="46">
-        <f>'k2'!I62</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="46">
-        <f>'k2'!J62</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="46">
-        <f>'k2'!K62</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="46">
-        <f>'k2'!L62</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="46">
-        <f>'k2'!M62</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="46">
-        <f>'k2'!N62</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="46">
-        <f>'k2'!O62</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>